--- a/DBzip/db_import.xlsx
+++ b/DBzip/db_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a10910/Documents/,2025花東音樂營/,course selection system/HTCCCS/DBzip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB16550F-3696-0945-9A18-C36B5CB43808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF1864-E9FD-AF46-88A3-067BF49D9992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="780" windowWidth="34120" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="319">
   <si>
     <t>section_id</t>
   </si>
@@ -1067,6 +1067,18 @@
   </si>
   <si>
     <t>第十二節</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>國中部課程</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>測試國中部課程</t>
   </si>
 </sst>
 </file>
@@ -4184,10 +4196,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4828,7 +4840,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
@@ -4846,7 +4858,7 @@
         <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="F38" s="2">
         <v>5</v>
@@ -5396,6 +5408,23 @@
       </c>
       <c r="F70" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DBzip/db_import.xlsx
+++ b/DBzip/db_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a10910/Documents/,2025花東音樂營/,course selection system/HTCCCS/DBzip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF1864-E9FD-AF46-88A3-067BF49D9992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF444C6-AF2C-FE42-9E20-55579013EB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="780" windowWidth="34120" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,102 @@
     <sheet name="student" sheetId="3" r:id="rId3"/>
     <sheet name="course" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>陳彥廷</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{238DFF07-5421-C74F-9319-0F043C7A51E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>陳彥廷</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>全部資料都輸入完畢後，依照名字排序，確保連堂的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>都連在一起</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="B32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="B60" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="317">
   <si>
     <t>section_id</t>
   </si>
@@ -1072,20 +1157,14 @@
     <t>hs</t>
   </si>
   <si>
-    <t>國中部課程</t>
-  </si>
-  <si>
-    <t>js</t>
-  </si>
-  <si>
-    <t>測試國中部課程</t>
+    <t>白色恐怖然後呢？課本沒告訴你的事_歐哭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1111,6 +1190,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1132,13 +1231,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,10 +1457,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1518,7 +1621,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4196,10 +4299,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5417,15 +5520,16 @@
       <c r="B71" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>318</v>
-      </c>
+      <c r="C71" s="3"/>
       <c r="E71" s="1" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="F71" s="2">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DBzip/db_import.xlsx
+++ b/DBzip/db_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a10910/Documents/,2025花東音樂營/,course selection system/HTCCCS/DBzip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF444C6-AF2C-FE42-9E20-55579013EB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6931F7-A904-394F-B393-BCD010B33B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="780" windowWidth="34120" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="B59" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="317">
   <si>
     <t>section_id</t>
   </si>
@@ -853,9 +853,6 @@
     <t>誒？早餐店的阿姨叫我帥哥誒！她還特地幫我的蛋餅加番茄醬還畫愛心，阿姨是不是喜歡我？</t>
   </si>
   <si>
-    <t>手語課_美秀、飯飯</t>
-  </si>
-  <si>
     <t>一起來到手語的世界，感受這一刻美好與感動。</t>
   </si>
   <si>
@@ -875,12 +872,6 @@
   </si>
   <si>
     <t>催眠是什麼？一起發現偷偷藏在生活中的心理學！</t>
-  </si>
-  <si>
-    <t>交友軟件無地雷_玉仔、美秀</t>
-  </si>
-  <si>
-    <t>手把手帶你踏進交友軟體，分辨到底來者何意？是敵是友，還是？！</t>
   </si>
   <si>
     <t>交友軟體無地雷_美秀、玉仔</t>
@@ -1158,6 +1149,15 @@
   </si>
   <si>
     <t>白色恐怖然後呢？課本沒告訴你的事_歐哭</t>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>手語課一_美秀、飯飯</t>
+  </si>
+  <si>
+    <t>手語課二_美秀、飯飯</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1484,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1506,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1517,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1528,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1539,7 +1539,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1561,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1594,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1605,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1620,8 +1620,8 @@
   </sheetPr>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A5" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2177,20 +2177,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>73</v>
@@ -2199,13 +2199,16 @@
         <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2243,7 +2246,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2261,7 +2264,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -2297,7 +2300,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -2315,7 +2318,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -2333,7 +2336,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2389,7 +2392,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -2407,7 +2410,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -2425,7 +2428,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -2441,9 +2444,11 @@
       <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -2461,7 +2466,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -4301,8 +4306,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4437,10 +4442,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>204</v>
@@ -4454,7 +4459,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4470,10 +4475,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -4488,10 +4493,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -4506,10 +4511,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -4524,17 +4529,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4542,15 +4545,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F14" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4558,15 +4561,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2">
+        <v>15</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4574,19 +4581,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="2">
-        <v>15</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4594,7 +4597,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4602,7 +4605,7 @@
         <v>204</v>
       </c>
       <c r="F17" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4610,15 +4613,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F18" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4626,16 +4633,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F19" s="2">
         <v>6</v>
@@ -4646,17 +4651,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F20" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4664,17 +4669,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4682,17 +4687,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4700,9 +4703,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>204</v>
@@ -4716,17 +4721,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4734,17 +4739,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F25" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4752,7 +4755,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4760,7 +4763,7 @@
         <v>204</v>
       </c>
       <c r="F26" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4768,7 +4771,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4784,7 +4787,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4792,7 +4795,7 @@
         <v>204</v>
       </c>
       <c r="F28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4800,15 +4803,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4816,17 +4821,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F30" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4834,17 +4839,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="D31" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F31" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4852,19 +4859,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D32" s="2">
-        <v>18</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F32" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4872,7 +4875,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4880,7 +4883,7 @@
         <v>204</v>
       </c>
       <c r="F33" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4888,7 +4891,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4904,7 +4907,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4912,7 +4915,7 @@
         <v>204</v>
       </c>
       <c r="F35" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4920,15 +4923,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="2">
+        <v>99</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="F36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4936,17 +4941,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2">
         <v>99</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F37" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4954,17 +4959,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="2">
-        <v>99</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="F38" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4972,15 +4975,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F39" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4988,15 +4991,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F40" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5004,17 +5009,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F41" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5022,17 +5027,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5040,15 +5043,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F43" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5056,15 +5059,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F44" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5072,17 +5077,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2">
+        <v>21</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F45" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5090,17 +5095,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="2">
-        <v>21</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F46" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5108,7 +5111,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5116,7 +5119,7 @@
         <v>204</v>
       </c>
       <c r="F47" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5124,9 +5127,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
         <v>204</v>
@@ -5140,17 +5145,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F49" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5158,7 +5161,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5166,7 +5169,7 @@
         <v>204</v>
       </c>
       <c r="F50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5174,7 +5177,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5182,7 +5185,7 @@
         <v>204</v>
       </c>
       <c r="F51" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5190,7 +5193,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -5198,7 +5201,7 @@
         <v>204</v>
       </c>
       <c r="F52" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5206,15 +5209,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F53" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5222,15 +5225,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F54" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5238,17 +5243,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F55" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5256,15 +5259,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F56" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5272,17 +5277,17 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5290,10 +5295,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
@@ -5308,17 +5313,17 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5326,17 +5331,17 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F60" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5344,17 +5349,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="2">
+        <v>16</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F61" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5362,19 +5369,17 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D62" s="2">
-        <v>16</v>
-      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F62" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5382,17 +5387,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F63" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5400,15 +5403,17 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="2">
+        <v>12</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F64" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5416,17 +5421,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="2">
-        <v>12</v>
-      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F65" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5434,15 +5437,15 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F66" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5450,15 +5453,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F67" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5466,17 +5471,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>295</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F68" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5484,15 +5487,17 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F69" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5500,31 +5505,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="E70" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F70" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="E71" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F71" s="2">
         <v>5</v>
       </c>
     </row>
